--- a/statistics/burndown-chart.xlsx
+++ b/statistics/burndown-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\School\artifacts\Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A770B4E-03DB-4EC1-9F25-C3F70B2F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C03CA-988E-44A1-8B89-44E36097848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{D6FFFC4D-3734-4703-94AD-2D56345C9C21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6FFFC4D-3734-4703-94AD-2D56345C9C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Sprint</t>
   </si>
@@ -53,32 +53,54 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>24.10.2023 - 07.11.2023</t>
-  </si>
-  <si>
-    <t>07.11.2023 - 21.11.2023</t>
-  </si>
-  <si>
     <t>21.11.2023 - 12.12.2023</t>
   </si>
   <si>
     <t>12.12.2023 - 09.01.2024</t>
   </si>
   <si>
-    <t>NoData</t>
+    <t>09.01.2024 - 30.01.2024</t>
   </si>
   <si>
-    <t>09.01.2024 - 30.01.2024</t>
+    <t>estimated story points:</t>
+  </si>
+  <si>
+    <t>Storypoints left</t>
+  </si>
+  <si>
+    <t>SPRINT 1/2 WEGEN KEINE DATEN NICHT DOKUMENTIERT</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Erledige Storypoints</t>
+  </si>
+  <si>
+    <t>Avarage Storypoints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,14 +135,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,35 +173,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-AT"/>
-              <a:t>Burndown</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-AT" baseline="0"/>
-              <a:t> Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -219,14 +210,14 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Planned</c:v>
+                  <c:v>Storypoints left</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -245,39 +236,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:f>Sheet1!$E$3:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -285,79 +258,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7537-49AA-8638-91FB6B0F821F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7537-49AA-8638-91FB6B0F821F}"/>
+              <c16:uniqueId val="{00000001-8D47-49E6-9406-EE3D672BB1A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -370,11 +271,83 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="275945359"/>
-        <c:axId val="471022607"/>
+        <c:axId val="1602043855"/>
+        <c:axId val="1354254991"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sprint</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8D47-49E6-9406-EE3D672BB1A8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="275945359"/>
+        <c:axId val="1602043855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +389,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471022607"/>
+        <c:crossAx val="1354254991"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -424,10 +397,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471022607"/>
+        <c:axId val="1354254991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -476,7 +448,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275945359"/>
+        <c:crossAx val="1602043855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -563,7 +535,819 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> charts</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avarage Storypoints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>319.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47B4-4340-89DD-03550A909248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erledige Storypoints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-47B4-4340-89DD-03550A909248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="26936447"/>
+        <c:axId val="1603928015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="26936447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603928015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1603928015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26936447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wann</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sind wir fertig</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avarage Storypoints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>319.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>239.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E26-4C44-A7C4-46E733A792DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="29219423"/>
+        <c:axId val="1606091999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="29219423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1606091999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1606091999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29219423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1119,27 +1903,1059 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CB13D5-1A67-ACD4-5D5C-45837FD89FF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82ACD4EE-8613-12E7-2675-5897D4B5805D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,13 +2973,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC6B235-A650-62B3-C7E6-6E8B23CAFD89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE820FB-7874-2E2F-EB64-5821EFAD04B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1201,7 +3089,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1307,7 +3195,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,7 +3337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1457,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12577356-3D5E-46E8-8EC2-D306F561E31C}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +3359,7 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1480,8 +3368,23 @@
         <v>3</v>
       </c>
       <c r="D1" s="4"/>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1">
+        <v>400</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1494,160 +3397,311 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>Q1</f>
+        <v>400</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="1">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <f>Q1-D3</f>
+        <v>357</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <f>Z2-D$17</f>
+        <v>373.25</v>
+      </c>
+      <c r="AA3">
+        <f>E3</f>
+        <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="1">
+        <f>SUM(2,7,3,3,5,5,3,3,3,1)</f>
+        <v>35</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <f>E3-D4</f>
+        <v>327</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z22" si="0">Z3-D$17</f>
+        <v>346.5</v>
+      </c>
+      <c r="AA4">
+        <f>E4</f>
+        <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <f>E4-D5</f>
+        <v>313</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>319.75</v>
+      </c>
+      <c r="AA5">
+        <f>E5</f>
+        <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f>SUM(2,7,3,3,5,5,3,3,3,1)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f>E5-D6</f>
+        <v>293</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="AA6">
+        <f>E6</f>
+        <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E11" si="1">E6-D7</f>
+        <v>293</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>266.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>239.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>212.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="Y11">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>159.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>132.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+      <c r="Y13">
+        <v>11</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>105.75</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="Y15">
+        <v>13</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>52.25</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>14</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>AVERAGE(D3:D6)</f>
+        <v>26.75</v>
+      </c>
+      <c r="Y17">
+        <v>15</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/statistics/burndown-chart.xlsx
+++ b/statistics/burndown-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\Github\artifacts\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C03CA-988E-44A1-8B89-44E36097848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD3340C-3208-4F4F-99D3-276B8A29C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6FFFC4D-3734-4703-94AD-2D56345C9C21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6FFFC4D-3734-4703-94AD-2D56345C9C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,13 +137,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -161,7 +161,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -209,8 +209,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$2</c:f>
@@ -225,7 +225,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -236,10 +236,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$6</c:f>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>357</c:v>
                 </c:pt>
@@ -251,14 +251,32 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D47-49E6-9406-EE3D672BB1A8}"/>
+              <c16:uniqueId val="{00000000-8D47-49E6-9406-EE3D672BB1A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -273,78 +291,7 @@
         <c:smooth val="0"/>
         <c:axId val="1602043855"/>
         <c:axId val="1354254991"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Sprint</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$B$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-8D47-49E6-9406-EE3D672BB1A8}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1602043855"/>
@@ -538,7 +485,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -643,10 +590,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$2:$Z$6</c:f>
+              <c:f>Sheet1!$Z$2:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -661,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,10 +650,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$2:$AA$6</c:f>
+              <c:f>Sheet1!$AA$2:$AA$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>357</c:v>
                 </c:pt>
@@ -715,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,7 +883,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3049,9 +3002,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3089,7 +3042,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3195,7 +3148,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3337,7 +3290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3347,11 +3300,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12577356-3D5E-46E8-8EC2-D306F561E31C}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -3360,14 +3313,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="5"/>
       <c r="N1" t="s">
         <v>8</v>
       </c>
@@ -3459,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z22" si="0">Z3-D$17</f>
+        <f t="shared" ref="Z4:Z17" si="0">Z3-D$17</f>
         <v>346.5</v>
       </c>
       <c r="AA4">
@@ -3510,7 +3463,7 @@
         <f>E5-D6</f>
         <v>293</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Y6">
@@ -3545,6 +3498,10 @@
       <c r="Z7">
         <f t="shared" si="0"/>
         <v>266.25</v>
+      </c>
+      <c r="AA7">
+        <f>AA6+34</f>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -3632,6 +3589,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
+      <c r="E12">
+        <f>E11-34</f>
+        <v>259</v>
+      </c>
       <c r="Y12">
         <v>10</v>
       </c>

--- a/statistics/burndown-chart.xlsx
+++ b/statistics/burndown-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\Github\artifacts\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD3340C-3208-4F4F-99D3-276B8A29C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F5FFB4-BA0F-4BF4-86E6-2CB7418B2FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6FFFC4D-3734-4703-94AD-2D56345C9C21}"/>
   </bookViews>
@@ -3301,7 +3301,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
